--- a/Leçon chimie/LC 22/LC22.xlsx
+++ b/Leçon chimie/LC 22/LC22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Détermination de Ks(PbI2)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Détermination de la constante de solubilité de l'iodure de Plomb</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>ln(Ks)</t>
+  </si>
+  <si>
+    <t>∆rH° (kJ.K-1.mol-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-∆rH°/R = -8417,4 </t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,6 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -451,30 +458,57 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110905128"/>
-        <c:axId val="-2110913256"/>
+        <c:axId val="-2114378344"/>
+        <c:axId val="-2114373272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110905128"/>
+        <c:axId val="-2114378344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>1/T</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (K-1)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.803968792891714"/>
+              <c:y val="0.142857142857143"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110913256"/>
+        <c:crossAx val="-2114373272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110913256"/>
+        <c:axId val="-2114373272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-8.0"/>
@@ -483,6 +517,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>ln(Ks)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -490,7 +539,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110905128"/>
+        <c:crossAx val="-2114378344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -516,16 +565,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1171,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1330,6 +1379,20 @@
         <v>-9.8034956207129902</v>
       </c>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8">
+        <f>8417.4*8.314/1000</f>
+        <v>69.982263599999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Leçon chimie/LC 22/LC22.xlsx
+++ b/Leçon chimie/LC 22/LC22.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Détermination de Ks(PbI2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Détermination Ka Acide éthanoïq" sheetId="4" r:id="rId1"/>
     <sheet name="Influence de T°C" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -20,91 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
-  <si>
-    <t>Détermination de la constante de solubilité de l'iodure de Plomb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandeur mesurée </t>
-  </si>
-  <si>
-    <t>Méthode utilisée</t>
-  </si>
-  <si>
-    <t>Incertitudes</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t>Burette + Lecture graphique</t>
-  </si>
-  <si>
-    <t>Voume de KI ajoutée Vaj (L)</t>
-  </si>
-  <si>
-    <t>Volume V0 (L)</t>
-  </si>
-  <si>
-    <t>masse de nitrate de plomb (g)</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiole jaugée de 100mL </t>
-  </si>
-  <si>
-    <t>Masse molaires(g/mol)</t>
-  </si>
-  <si>
-    <t>Pb(NO3)2</t>
-  </si>
-  <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrate de plomb à 0,01mol/L </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI  à 0,01mol/L </t>
-  </si>
-  <si>
-    <t>masse d'iodure de potassium (g)</t>
-  </si>
-  <si>
-    <t>Volume de la solution V0 (L)</t>
-  </si>
-  <si>
-    <t>Volume de la solution(L)</t>
-  </si>
-  <si>
-    <t>Concentration C1 (mol/L)</t>
-  </si>
-  <si>
-    <t>Concentration C0 (mol/L)</t>
-  </si>
-  <si>
-    <t>Concentation C0 de la solution bécher en Pb2+</t>
-  </si>
-  <si>
-    <t>Concentration de la solution de KI C1(mol/L-</t>
-  </si>
-  <si>
-    <t>cf préparation des solutions</t>
-  </si>
-  <si>
-    <t>Résultats</t>
-  </si>
-  <si>
-    <t>Ks</t>
-  </si>
-  <si>
-    <t>Volume total (L)</t>
-  </si>
-  <si>
-    <t>Influence de la température</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Conductivité molaire ionique</t>
   </si>
@@ -177,9 +93,6 @@
     </r>
   </si>
   <si>
-    <t>Solubilité s (mol/m3)</t>
-  </si>
-  <si>
     <t>Constante de solubilité Ks</t>
   </si>
   <si>
@@ -193,13 +106,121 @@
   </si>
   <si>
     <t xml:space="preserve">-∆rH°/R = -8417,4 </t>
+  </si>
+  <si>
+    <t>ions</t>
+  </si>
+  <si>
+    <t>λ (mS.m2.mol-1)</t>
+  </si>
+  <si>
+    <t>Solution dont on dispose</t>
+  </si>
+  <si>
+    <t>CH3COOH à 10-1 mol/L</t>
+  </si>
+  <si>
+    <t>H3O+</t>
+  </si>
+  <si>
+    <t>CH3COO-</t>
+  </si>
+  <si>
+    <t>Cl-</t>
+  </si>
+  <si>
+    <t>Préparation par DILUTION des solutions d'acide éthanoïque à 10-2 et 10-3 mol/L  : c0=Vm.Cm/V0</t>
+  </si>
+  <si>
+    <t>Vm (L)</t>
+  </si>
+  <si>
+    <t>u(Vm) (pipette jaugée)</t>
+  </si>
+  <si>
+    <t>Cm (mol.L-1)</t>
+  </si>
+  <si>
+    <t>u(Cm) (solution mère)</t>
+  </si>
+  <si>
+    <t>V0 (L) (fiole jaugée)</t>
+  </si>
+  <si>
+    <t>u(V0)</t>
+  </si>
+  <si>
+    <t>C0 (mol.L-1)</t>
+  </si>
+  <si>
+    <t>u(C0)</t>
+  </si>
+  <si>
+    <t>CH3COOH à 10-2 mol/L</t>
+  </si>
+  <si>
+    <t>CH3COOH à 10-3 mol/L</t>
+  </si>
+  <si>
+    <t>attention: /1000 car C en mol.m-3 dans la loi de Kolrausch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σ (mS.m-1) </t>
+  </si>
+  <si>
+    <t>u(σ)</t>
+  </si>
+  <si>
+    <t>αexp</t>
+  </si>
+  <si>
+    <t>u(α)</t>
+  </si>
+  <si>
+    <t>Calcul de la constante d'acidité</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>u(Ka)</t>
+  </si>
+  <si>
+    <t>pKA</t>
+  </si>
+  <si>
+    <t>u(pKa)</t>
+  </si>
+  <si>
+    <t>Coefficient de dissociation de HCl dans l'eau</t>
+  </si>
+  <si>
+    <t>σ (mS.cm-1)</t>
+  </si>
+  <si>
+    <t>Détermination de la constante d'acidité de l'acide éthanoïque</t>
+  </si>
+  <si>
+    <t>Détermination du coefficient de dissociation de CH3COOH dans l'eau</t>
+  </si>
+  <si>
+    <t>Solubilité s (mol/L)</t>
+  </si>
+  <si>
+    <t>pKs</t>
+  </si>
+  <si>
+    <t>Influence de la température sur la solubilité de PbI2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,8 +276,28 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +310,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFA2A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -293,8 +346,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,20 +394,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -330,23 +422,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,16 +554,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-12.44020522012059</c:v>
+                  <c:v>-18.17106631300156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.5996051506434</c:v>
+                  <c:v>-17.33046624352436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.61180612656815</c:v>
+                  <c:v>-16.34266721944912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.80349562071299</c:v>
+                  <c:v>-15.53435671359395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,11 +578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2114378344"/>
-        <c:axId val="-2114373272"/>
+        <c:axId val="2088508936"/>
+        <c:axId val="2139128968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2114378344"/>
+        <c:axId val="2088508936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,15 +623,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114373272"/>
+        <c:crossAx val="2139128968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114373272"/>
+        <c:axId val="2139128968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-8.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -539,7 +658,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114378344"/>
+        <c:crossAx val="2088508936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -918,298 +1037,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14">
+        <v>32.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="29" customHeight="1">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="D9">
+      <c r="F10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="4">
+        <f>H10*(((C10/B10)^2)+((E10/D10)^2)+((G10/F10)^2))^0.5</f>
+        <v>1.6770509831248423E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="H11" s="4">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-      <c r="D10">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <f>(C9/B29)/C10</f>
-        <v>9.9939613526570052E-3</v>
-      </c>
-      <c r="D11">
-        <f>C11*SQRT((D10/C10)^2+(D9/C9)^2)</f>
-        <v>3.1804257684231011E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="D13">
+      <c r="I11" s="4">
+        <f>H11*(((C11/B11)^2)+((E11/D11)^2)+((G11/F11)^2))^0.5</f>
+        <v>3.0923292192132459E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="4">
+        <f>I10</f>
+        <v>1.6770509831248423E-5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>14.97</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="14">
+        <f>D16/(1000*B16*($B$4+$B$5))</f>
+        <v>4.1353591160220998E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <f>F16*((C16/B16)^2+(E16/D16)^2)^0.5</f>
+        <v>7.46512797502056E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>0.1</v>
-      </c>
-      <c r="D14">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <f>(C13/B30)/C14</f>
+      <c r="C17" s="4">
+        <f>I11</f>
+        <v>3.0923292192132459E-6</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.01</v>
       </c>
-      <c r="D15">
-        <f>C15*SQRT((D14/C14)^2+(D13/C13)^2)</f>
-        <v>6.1065323435074187E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <f>C15</f>
+      <c r="F17" s="4">
+        <f>D17/(1000*B17*($B$4+$B$5))</f>
+        <v>0.13011049723756904</v>
+      </c>
+      <c r="G17" s="4">
+        <f>F17*(((C17/B17)^2)+((E17/D17)^2))^0.5</f>
+        <v>4.8804849907723612E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4">
         <v>0.01</v>
       </c>
-      <c r="D19">
-        <f>D15</f>
-        <v>6.1065323435074187E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <f>C10</f>
-        <v>0.1</v>
-      </c>
-      <c r="D20">
-        <f>D10</f>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <f>C11</f>
-        <v>9.9939613526570052E-3</v>
-      </c>
-      <c r="D21">
-        <f>D11</f>
-        <v>3.1804257684231011E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" t="s">
+      <c r="C23" s="4">
+        <f>(B16*F16*F16)/(1-F16)</f>
+        <v>1.783889749210467E-5</v>
+      </c>
+      <c r="D23" s="4">
+        <f>C23*((C16/B16)^2+(G16/(F16*(1-F16)))^2)^0.5</f>
+        <v>4.4982463403986836E-8</v>
+      </c>
+      <c r="E23" s="15">
+        <f>-LOG10(C23)</f>
+        <v>4.7486319900883194</v>
+      </c>
+      <c r="F23" s="4">
+        <f>D23/C23</f>
+        <v>2.5215943655652294E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="4">
+        <f>(B17*F17*F17)/(1-F17)</f>
+        <v>1.9460795236232141E-5</v>
+      </c>
+      <c r="D24" s="4">
+        <f>C24*((C17/B17)^2+(G17/(F17*(1-F17)))^2)^0.5</f>
+        <v>1.0326425374766176E-7</v>
+      </c>
+      <c r="E24" s="15">
+        <f>-LOG10(C24)</f>
+        <v>4.7108394169119174</v>
+      </c>
+      <c r="F24" s="4">
+        <f>D24/C24</f>
+        <v>5.306271017918333E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2">
-        <f>C20+C18</f>
-        <v>0.111</v>
-      </c>
-      <c r="D22" s="2">
-        <f>D20+D18</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <f>(C21*C20*(C19*C18)^2)/((C20+C18)^3)</f>
-        <v>8.8420730714022826E-9</v>
-      </c>
-      <c r="D26" s="2">
-        <f>C26*SQRT((D21/C21)^2+(D20/C20)^2+2*(D19/C19)^2+2*(D18/C18)^2+3*(D22/C22)^2)</f>
-        <v>1.4277567169317463E-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3">
-        <v>331.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3">
-        <v>166</v>
+      <c r="C43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="11">
+        <f>C44/(1000*A44*($B$4+$B$6))</f>
+        <v>0</v>
+      </c>
+      <c r="F44" t="e">
+        <f>E44*((B44/A44)^2+(D44/C44)^2)^0.5</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B21:F21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1220,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1233,168 +1431,193 @@
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="9">
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="22"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>7.6800000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10">
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>20</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <f>1/(A8+273)</f>
         <v>3.4129692832764505E-3</v>
       </c>
-      <c r="C8" s="11">
-        <v>4.3600000000000003E-4</v>
-      </c>
-      <c r="D8" s="11">
-        <f>C8/(2*($B$4+$C$4))</f>
-        <v>9.963436928702012E-3</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="C8" s="7">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8/(1000*($B$4+2*$C$4))</f>
+        <v>1.4749661705006764E-3</v>
+      </c>
+      <c r="E8" s="16">
         <f>4*D8^3</f>
-        <v>3.9562845419057792E-6</v>
-      </c>
-      <c r="F8" s="8">
+        <v>1.2835304316602754E-8</v>
+      </c>
+      <c r="F8" s="4">
         <f>LN(E8)</f>
-        <v>-12.440205220120594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10">
+        <v>-18.171066313001557</v>
+      </c>
+      <c r="G8" s="4">
+        <f>-LOG(E8,10)</f>
+        <v>7.8915938300346431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
         <v>30</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <f t="shared" ref="B9:B11" si="0">1/(A9+273)</f>
         <v>3.3003300330033004E-3</v>
       </c>
-      <c r="C9" s="11">
-        <v>5.7700000000000004E-4</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" ref="D9:D11" si="1">C9/(2*($B$4+$C$4))</f>
-        <v>1.3185557586837295E-2</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" ref="E9:E11" si="2">4*D9^3</f>
-        <v>9.1697076747109759E-6</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="C9" s="17">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ref="D9:D11" si="1">C9/(1000*($B$4+2*$C$4))</f>
+        <v>1.9519621109607577E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <f>4*D9^3</f>
+        <v>2.9749121240533421E-8</v>
+      </c>
+      <c r="F9" s="4">
         <f>LN(E9)</f>
-        <v>-11.599605150643399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10">
+        <v>-17.330466243524363</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G11" si="2">-LOG(E9,10)</f>
+        <v>7.5265258583732075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>40</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>3.1948881789137379E-3</v>
       </c>
-      <c r="C10" s="11">
-        <v>8.0199999999999998E-4</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="7">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>1.8327239488117E-2</v>
-      </c>
-      <c r="E10" s="11">
+        <v>2.7131258457374825E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <f>4*D10^3</f>
+        <v>7.9885840156381598E-8</v>
+      </c>
+      <c r="F10" s="4">
+        <f>LN(E10)</f>
+        <v>-16.342667219449119</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>2.4623577807892656E-5</v>
-      </c>
-      <c r="F10" s="8">
-        <f>LN(E10)</f>
-        <v>-10.611806126568155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10">
+        <v>7.0975301929879118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>50</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>3.0959752321981426E-3</v>
       </c>
-      <c r="C11" s="11">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
-        <v>2.3994515539305299E-2</v>
-      </c>
-      <c r="E11" s="11">
+        <v>3.5520974289580511E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <f>4*D11^3</f>
+        <v>1.7927288162450496E-7</v>
+      </c>
+      <c r="F11" s="4">
+        <f>LN(E11)</f>
+        <v>-15.534356713593954</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
-        <v>5.5258100069859373E-5</v>
-      </c>
-      <c r="F11" s="8">
-        <f>LN(E11)</f>
-        <v>-9.8034956207129902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="8">
+        <v>6.7464854006305872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
         <f>8417.4*8.314/1000</f>
         <v>69.982263599999996</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
